--- a/backend/Population_Datasets/Switzerlandpop.xlsx
+++ b/backend/Population_Datasets/Switzerlandpop.xlsx
@@ -10807,7 +10807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3607"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3428" workbookViewId="0">
+      <selection activeCell="B3439" sqref="B3439"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -28856,7 +28858,7 @@
         <v>3324</v>
       </c>
       <c r="B3438">
-        <v>181492</v>
+        <v>201818</v>
       </c>
     </row>
     <row r="3439" spans="1:2" x14ac:dyDescent="0.2">
